--- a/freak12techno/evidence.xlsx
+++ b/freak12techno/evidence.xlsx
@@ -73,7 +73,7 @@
     <t>juno1w72m7qz6cluqt2vkynqvgl3pmru7av8sgvnecu</t>
   </si>
   <si>
-    <t>0xe1dBB5E7D4E8535fe866ce5b7A9782377139c12E</t>
+    <t>uptick1u8dmte75apf4l6rxeedh49uzxacnnsfwwsq8x9</t>
   </si>
   <si>
     <t>omniflix1x5eqs490zxzfgx69d65gfv9ws7733c46sk9t85</t>
@@ -167,7 +167,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -310,31 +316,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -373,7 +379,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -627,17 +633,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -665,10 +671,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -916,12 +922,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1208,7 +1214,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1236,10 +1242,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1496,11 +1502,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.4766" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.9375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.2109" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.0703" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.9844" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.8516" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.6719" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.6719" style="1" customWidth="1"/>
